--- a/deploy-tenant_input_Spreadsheet.xlsx
+++ b/deploy-tenant_input_Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4C4FC-6976-4B2E-AA7E-0B33553A4F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A976CBAA-6913-4BA7-825E-D0E5D9EA9F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,6 @@
     <sheet name="App and EPGs" sheetId="9" r:id="rId8"/>
     <sheet name="formulas" sheetId="3" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="leaf">formulas!$B$2:$B$18</definedName>
     <definedName name="spine">formulas!$C$2:$C$11</definedName>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="163">
   <si>
     <t>Type</t>
   </si>
@@ -283,10 +280,313 @@
     <t>Interface Type</t>
   </si>
   <si>
+    <t>bgp</t>
+  </si>
+  <si>
+    <t>Create L3Outs</t>
+  </si>
+  <si>
+    <t>Leaf Name</t>
+  </si>
+  <si>
+    <t>Leaf Node Id</t>
+  </si>
+  <si>
+    <t>L3Out VRF</t>
+  </si>
+  <si>
+    <t>L3Out L3 Domain</t>
+  </si>
+  <si>
+    <t>Create Node Profiles</t>
+  </si>
+  <si>
+    <t>nodeprof</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>IPv4/Prefix</t>
+  </si>
+  <si>
+    <t>leaf201</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>Routed Interface</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>Create Interface Policy Groups</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>998-999</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>r143b-fp01-Eth1/1</t>
+  </si>
+  <si>
+    <t>r143c-fp02-vpc</t>
+  </si>
+  <si>
+    <t>r143c-fp02-Eth1/1</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>143c-lab-gw1-Te0/0/4</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct0-vpc</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct1-vpc</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>1-994,997,999-4094</t>
+  </si>
+  <si>
+    <t>r143b-ucs-a-vpc</t>
+  </si>
+  <si>
+    <t>r143b-ucs-b-vpc</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>142b-oob-vpc</t>
+  </si>
+  <si>
+    <t>169,811-812,3960,3963,3965-3967</t>
+  </si>
+  <si>
+    <t>asgard-leaf-vpc</t>
+  </si>
+  <si>
+    <t>asgard-leaf101-Eth1/49</t>
+  </si>
+  <si>
+    <t>asgard-leaf102-Eth1/49</t>
+  </si>
+  <si>
+    <t>168,812,3910,3961-3962,3964</t>
+  </si>
+  <si>
+    <t>wakanda-leaf-vpc</t>
+  </si>
+  <si>
+    <t>1-994,997,1000-3966,3968-4094</t>
+  </si>
+  <si>
+    <t>143-oob-vpc</t>
+  </si>
+  <si>
+    <t>143-dist-vpc</t>
+  </si>
+  <si>
+    <t>port-channel ID</t>
+  </si>
+  <si>
+    <t>VPC Id</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>Switchport Mode</t>
+  </si>
+  <si>
+    <t>Access or Native VLAN</t>
+  </si>
+  <si>
+    <t>Trunk Allowed VLANs</t>
+  </si>
+  <si>
+    <t>CDP Enabled</t>
+  </si>
+  <si>
+    <t>LLDP Receive</t>
+  </si>
+  <si>
+    <t>LLDP Transmit</t>
+  </si>
+  <si>
+    <t>BPDU Guard</t>
+  </si>
+  <si>
+    <t>Port-Channel Description</t>
+  </si>
+  <si>
+    <t>Port Description</t>
+  </si>
+  <si>
+    <t>Node Id</t>
+  </si>
+  <si>
+    <t>Policy Group Name</t>
+  </si>
+  <si>
+    <t>vpc_add</t>
+  </si>
+  <si>
+    <t>apg_add</t>
+  </si>
+  <si>
+    <t>r143c_fp02_vpc</t>
+  </si>
+  <si>
+    <t>r143b_fp01_vpc</t>
+  </si>
+  <si>
+    <t>r143b-fp01-vpc</t>
+  </si>
+  <si>
+    <t>access_apg</t>
+  </si>
+  <si>
+    <t>Leaf201</t>
+  </si>
+  <si>
+    <t>Switch Name</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct0_vpc</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct1_vpc</t>
+  </si>
+  <si>
+    <t>r143b-ucs-a_vpc</t>
+  </si>
+  <si>
+    <t>r143b-ucs-b_vpc</t>
+  </si>
+  <si>
+    <t>142b-oob_vpc</t>
+  </si>
+  <si>
+    <t>asgard-leaf_vpc</t>
+  </si>
+  <si>
+    <t>wakanda-leaf_vpc</t>
+  </si>
+  <si>
+    <t>143-oob_vpc</t>
+  </si>
+  <si>
+    <t>143-dist_vpc</t>
+  </si>
+  <si>
+    <t>Eth1-01</t>
+  </si>
+  <si>
+    <t>Eth1-02</t>
+  </si>
+  <si>
+    <t>Eth1-03</t>
+  </si>
+  <si>
+    <t>Eth1-04</t>
+  </si>
+  <si>
+    <t>Eth1-05</t>
+  </si>
+  <si>
+    <t>Eth1-06</t>
+  </si>
+  <si>
+    <t>Eth1-07</t>
+  </si>
+  <si>
+    <t>Eth1-08</t>
+  </si>
+  <si>
+    <t>Eth1-09</t>
+  </si>
+  <si>
+    <t>Eth1-10</t>
+  </si>
+  <si>
+    <t>Eth1-11</t>
+  </si>
+  <si>
+    <t>Eth1-12</t>
+  </si>
+  <si>
+    <t>Eth1-13</t>
+  </si>
+  <si>
+    <t>Eth1-14</t>
+  </si>
+  <si>
+    <t>Eth1-15</t>
+  </si>
+  <si>
+    <t>Create BreakOut Ports</t>
+  </si>
+  <si>
+    <t>brk_out</t>
+  </si>
+  <si>
+    <t>4x10g_pg</t>
+  </si>
+  <si>
+    <t>BreakOut Group Name</t>
+  </si>
+  <si>
+    <t>Eth1-1-01</t>
+  </si>
+  <si>
+    <t>Eth1-1-02</t>
+  </si>
+  <si>
+    <t>Eth1-1-03</t>
+  </si>
+  <si>
+    <t>Eth1-1-04</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">We recommend that the Tenant Name be between 1 and 10 characters but it can be up to 64 alphanumeric customers + underscore "_" or dash "-".
-Type tnt_add will only Create a Tenant;  Type tnt_vrf will create the Tenant and a vrf with the name {tenant}_vrf in the common Tenant.  We recommend using this in most cases
-VRF Description and Preferred or vzAny are only required for tnt_vrf Type
+      <t xml:space="preserve">We recommend that the Tenant Name be between 1 and 10 characters but it can be up to 64 alphanumeric characters + underscore "_" or dash "-".
+Type tnt_add will only Create a Tenant;  Type tnt_vrf will create the Tenant and a vrf with the name {tenant}_vrf in the common Tenant.  We recommend using this naming standard
+"VRF Description" and "Preferred or vzAny" are only required for tnt_vrf Type
 </t>
     </r>
     <r>
@@ -313,285 +613,12 @@
       <t>By default All VRF's are configured for enforcement; aka a Whitelist Model.  When deploying ACI for a basic network centric approach, (a typical network migration), it is best to use Preferred Group Membership or vzAny until you are ready for contract enforcement (Something that typically takes customers time to digest).  Preferred Groups is the easier way but it has a limit currently of 500 EPG's when associated to MSO.  vzAny has the larger scale but you need to implement contracts.  For this sake of this script when using vzAny, we will implement a "permit ip any any" schema but it can always be modified.  We recommend for deployments of less than 500 use preferred group.  For anything higher use vzAny.  There is not typically a reason to turn off enforcement at the VRF Level so the script doesn't expose this option.</t>
     </r>
   </si>
-  <si>
-    <t>bgp</t>
-  </si>
-  <si>
-    <t>Create L3Outs</t>
-  </si>
-  <si>
-    <t>Leaf Name</t>
-  </si>
-  <si>
-    <t>Leaf Node Id</t>
-  </si>
-  <si>
-    <t>L3Out VRF</t>
-  </si>
-  <si>
-    <t>L3Out L3 Domain</t>
-  </si>
-  <si>
-    <t>Create Node Profiles</t>
-  </si>
-  <si>
-    <t>nodeprof</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>VLAN</t>
-  </si>
-  <si>
-    <t>IPv4/Prefix</t>
-  </si>
-  <si>
-    <t>leaf201</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Routed Interface</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>Create Interface Policy Groups</t>
-  </si>
-  <si>
-    <t>vpc</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>trunk</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>998-999</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>r143b-fp01-Eth1/1</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>r143c-fp02-vpc</t>
-  </si>
-  <si>
-    <t>r143c-fp02-Eth1/1</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>143c-lab-gw1-Te0/0/4</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>9216</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct0-vpc</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct1-vpc</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1-994,997,999-4094</t>
-  </si>
-  <si>
-    <t>r143b-ucs-a-vpc</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>r143b-ucs-b-vpc</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>142b-oob-vpc</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>169,811-812,3960,3963,3965-3967</t>
-  </si>
-  <si>
-    <t>asgard-leaf-vpc</t>
-  </si>
-  <si>
-    <t>asgard-leaf101-Eth1/49</t>
-  </si>
-  <si>
-    <t>asgard-leaf102-Eth1/49</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>168,812,3910,3961-3962,3964</t>
-  </si>
-  <si>
-    <t>wakanda-leaf-vpc</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1-994,997,1000-3966,3968-4094</t>
-  </si>
-  <si>
-    <t>143-oob-vpc</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>143-dist-vpc</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>peer-link</t>
-  </si>
-  <si>
-    <t>Peer-Link - Core</t>
-  </si>
-  <si>
-    <t>143c-core02-Eth1/35</t>
-  </si>
-  <si>
-    <t>143c-core02-Eth1/36</t>
-  </si>
-  <si>
-    <t>port-channel ID</t>
-  </si>
-  <si>
-    <t>VPC Id</t>
-  </si>
-  <si>
-    <t>MTU</t>
-  </si>
-  <si>
-    <t>Switchport Mode</t>
-  </si>
-  <si>
-    <t>Access or Native VLAN</t>
-  </si>
-  <si>
-    <t>Trunk Allowed VLANs</t>
-  </si>
-  <si>
-    <t>CDP Enabled</t>
-  </si>
-  <si>
-    <t>LLDP Receive</t>
-  </si>
-  <si>
-    <t>LLDP Transmit</t>
-  </si>
-  <si>
-    <t>BPDU Guard</t>
-  </si>
-  <si>
-    <t>Port-Channel Description</t>
-  </si>
-  <si>
-    <t>Port Description</t>
-  </si>
-  <si>
-    <t>Node Id</t>
-  </si>
-  <si>
-    <t>Policy Group Name</t>
-  </si>
-  <si>
-    <t>vpc_add</t>
-  </si>
-  <si>
-    <t>apg_add</t>
-  </si>
-  <si>
-    <t>r143c_fp02_vpc</t>
-  </si>
-  <si>
-    <t>r143b_fp01_vpc</t>
-  </si>
-  <si>
-    <t>r143b-fp01-vpc</t>
-  </si>
-  <si>
-    <t>access_apg</t>
-  </si>
-  <si>
-    <t>Leaf201</t>
-  </si>
-  <si>
-    <t>Switch Name</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct0_vpc</t>
-  </si>
-  <si>
-    <t>r143c-netapp01-ct1_vpc</t>
-  </si>
-  <si>
-    <t>r143b-ucs-a_vpc</t>
-  </si>
-  <si>
-    <t>r143b-ucs-b_vpc</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +787,18 @@
       <sz val="15"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -971,7 +1010,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1281,6 +1320,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8EA9DB"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1336,7 +1449,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyNumberFormat="1"/>
@@ -1370,14 +1483,17 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="8" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="43">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="24" xfId="44">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1386,6 +1502,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
@@ -1403,6 +1528,15 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1412,26 +1546,38 @@
     <xf numFmtId="49" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="36" borderId="24" xfId="44" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="43">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="28" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="24" xfId="44">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="29" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="30" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1493,29 +1639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tenant"/>
-      <sheetName val="VRF"/>
-      <sheetName val="Bridge Domain"/>
-      <sheetName val="Subnet"/>
-      <sheetName val="DHCP Relay"/>
-      <sheetName val="Migrate Interfaces"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1815,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC9172D-5165-4643-8D6D-406EE90B9A46}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,1034 +1965,1182 @@
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-    </row>
-    <row r="2" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-    </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="13">
+        <v>201</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="13">
+        <v>201</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="14">
+        <v>201</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="13">
+        <v>201</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="14">
+        <v>201</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="13">
+        <v>201</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13">
+        <v>9000</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="14">
+        <v>201</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <v>9000</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="13">
+        <v>201</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="14">
+        <v>201</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
+        <v>9000</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="13">
+        <v>201</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13">
+        <v>9000</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="14">
+        <v>201</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <v>9000</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="13">
+        <v>201</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13">
+        <v>9000</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="14">
+        <v>201</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14">
+        <v>9000</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D26" s="13">
+        <v>201</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13">
+        <v>9000</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="C27" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="14">
+        <v>201</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14">
+        <v>9000</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="13">
+        <v>201</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13">
+        <v>9000</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="14">
+        <v>201</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14">
+        <v>9000</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="13">
+        <v>201</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13">
+        <v>9000</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="K30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="14">
+        <v>201</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14">
+        <v>9000</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="30" t="s">
+      <c r="K31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="31" t="s">
+      <c r="M31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" s="31" t="s">
+      <c r="N31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="31"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q8" s="30"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="30"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="31" t="s">
+      <c r="P31" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="30"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q18" s="30"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="N22" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q23" s="31" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="B12:Q12"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Values are apg_add, pcg_add, vpc_add" sqref="A4:A23" xr:uid="{748ECDDD-6CEE-4BA6-86D7-3848B484E213}">
+  <phoneticPr fontId="24" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Values are apg_add, pcg_add, vpc_add" sqref="A14:A31" xr:uid="{748ECDDD-6CEE-4BA6-86D7-3848B484E213}">
       <formula1>"apg_add,pcg_add,vpc_add"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Value is brk_out" sqref="A4:A9" xr:uid="{6114B379-EFF0-4439-BBD9-EBEC7C814D13}">
+      <formula1>"brk_out"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{D7473FD4-9C11-43A3-AFD3-DA7577B3255F}">
+      <formula1>"2x100g_pg,4x10g_pg,4x25g_pg,4x100g_pg,8x50g_pg"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2878,7 +3149,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,38 +3174,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="122.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="B2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -2943,16 +3214,16 @@
       <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="20" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
@@ -2968,16 +3239,16 @@
       <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="10" t="s">
         <v>53</v>
       </c>
@@ -2993,14 +3264,14 @@
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="8" t="s">
         <v>54</v>
       </c>
@@ -3012,12 +3283,12 @@
     <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3027,12 +3298,12 @@
     <row r="7" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3042,12 +3313,12 @@
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -3057,12 +3328,12 @@
     <row r="9" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -3072,12 +3343,12 @@
     <row r="10" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3087,12 +3358,12 @@
     <row r="11" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3102,12 +3373,12 @@
     <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -3117,12 +3388,12 @@
     <row r="13" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3132,12 +3403,12 @@
     <row r="14" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -3147,12 +3418,12 @@
     <row r="15" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -3162,12 +3433,12 @@
     <row r="16" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -3177,12 +3448,12 @@
     <row r="17" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -3192,12 +3463,12 @@
     <row r="18" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -3207,12 +3478,12 @@
     <row r="19" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -3222,12 +3493,12 @@
     <row r="20" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -3237,12 +3508,12 @@
     <row r="21" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -3252,12 +3523,12 @@
     <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -3267,12 +3538,12 @@
     <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -3281,6 +3552,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
@@ -3293,38 +3596,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A8 A10 A12 A14 A16 A18 A20 A22" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3379,38 +3650,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3422,11 +3693,11 @@
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
@@ -3447,11 +3718,11 @@
       <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="10" t="s">
         <v>53</v>
       </c>
@@ -3472,11 +3743,11 @@
       <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
@@ -3491,9 +3762,9 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -3506,9 +3777,9 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3521,9 +3792,9 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3536,9 +3807,9 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3551,9 +3822,9 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -3566,9 +3837,9 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3581,9 +3852,9 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -3596,9 +3867,9 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -3611,9 +3882,9 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -3626,9 +3897,9 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -3641,9 +3912,9 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3656,9 +3927,9 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -3671,9 +3942,9 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3686,9 +3957,9 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -3701,9 +3972,9 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -3716,9 +3987,9 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -3731,9 +4002,9 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -3746,9 +4017,9 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -3759,13 +4030,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
@@ -3777,11 +4046,13 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A23" xr:uid="{754EFBE9-6900-49FB-BD75-ABEDB98186B5}">
@@ -3825,38 +4096,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3869,10 +4140,10 @@
         <v>57</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>4</v>
@@ -3899,7 +4170,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -4016,60 +4287,60 @@
       <c r="M11" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="A13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -4080,19 +4351,19 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -4265,38 +4536,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4314,11 +4585,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -4341,9 +4612,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -4356,9 +4627,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4371,9 +4642,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -4386,9 +4657,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -4401,9 +4672,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4416,9 +4687,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -4431,9 +4702,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -4504,38 +4775,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4739,38 +5010,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4788,11 +5059,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -4815,9 +5086,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -4830,9 +5101,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4845,9 +5116,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -4860,9 +5131,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -4875,9 +5146,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4890,9 +5161,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -4905,9 +5176,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -4916,16 +5187,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B10" xr:uid="{0E2C46BF-216F-49C7-A16B-609641BE53B2}">
@@ -4978,38 +5249,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -5027,11 +5298,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5054,9 +5325,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -5069,9 +5340,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -5084,9 +5355,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -5099,9 +5370,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -5114,9 +5385,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -5129,9 +5400,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -5144,9 +5415,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>

--- a/deploy-tenant_input_Spreadsheet.xlsx
+++ b/deploy-tenant_input_Spreadsheet.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A976CBAA-6913-4BA7-825E-D0E5D9EA9F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E742B0-7420-4328-9CE5-768374159CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Access Interfaces" sheetId="8" r:id="rId1"/>
-    <sheet name="Tenant" sheetId="1" r:id="rId2"/>
-    <sheet name="VRF" sheetId="4" r:id="rId3"/>
-    <sheet name="L3Out" sheetId="10" r:id="rId4"/>
-    <sheet name="Bridge Domain" sheetId="5" r:id="rId5"/>
-    <sheet name="Subnet" sheetId="6" r:id="rId6"/>
-    <sheet name="DHCP Relay" sheetId="7" r:id="rId7"/>
-    <sheet name="App and EPGs" sheetId="9" r:id="rId8"/>
+    <sheet name="Tenant" sheetId="1" r:id="rId1"/>
+    <sheet name="VRF" sheetId="4" r:id="rId2"/>
+    <sheet name="L3Out" sheetId="10" r:id="rId3"/>
+    <sheet name="Bridge Domain" sheetId="5" r:id="rId4"/>
+    <sheet name="Subnet" sheetId="6" r:id="rId5"/>
+    <sheet name="DHCP Relay" sheetId="7" r:id="rId6"/>
+    <sheet name="App and EPGs" sheetId="9" r:id="rId7"/>
+    <sheet name="Access Interfaces" sheetId="8" r:id="rId8"/>
     <sheet name="formulas" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
   <si>
     <t>Type</t>
   </si>
@@ -421,12 +421,6 @@
     <t>143-dist-vpc</t>
   </si>
   <si>
-    <t>port-channel ID</t>
-  </si>
-  <si>
-    <t>VPC Id</t>
-  </si>
-  <si>
     <t>MTU</t>
   </si>
   <si>
@@ -463,12 +457,6 @@
     <t>Policy Group Name</t>
   </si>
   <si>
-    <t>vpc_add</t>
-  </si>
-  <si>
-    <t>apg_add</t>
-  </si>
-  <si>
     <t>r143c_fp02_vpc</t>
   </si>
   <si>
@@ -476,9 +464,6 @@
   </si>
   <si>
     <t>r143b-fp01-vpc</t>
-  </si>
-  <si>
-    <t>access_apg</t>
   </si>
   <si>
     <t>Leaf201</t>
@@ -612,6 +597,39 @@
       </rPr>
       <t>By default All VRF's are configured for enforcement; aka a Whitelist Model.  When deploying ACI for a basic network centric approach, (a typical network migration), it is best to use Preferred Group Membership or vzAny until you are ready for contract enforcement (Something that typically takes customers time to digest).  Preferred Groups is the easier way but it has a limit currently of 500 EPG's when associated to MSO.  vzAny has the larger scale but you need to implement contracts.  For this sake of this script when using vzAny, we will implement a "permit ip any any" schema but it can always be modified.  We recommend for deployments of less than 500 use preferred group.  For anything higher use vzAny.  There is not typically a reason to turn off enforcement at the VRF Level so the script doesn't expose this option.</t>
     </r>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>inherit_Auto</t>
+  </si>
+  <si>
+    <t>100G_noNeg</t>
+  </si>
+  <si>
+    <t>BPDU_fg</t>
+  </si>
+  <si>
+    <t>Attachable Entity Profile</t>
+  </si>
+  <si>
+    <t>Interface Selector</t>
+  </si>
+  <si>
+    <t>access_aep</t>
+  </si>
+  <si>
+    <t>add_vpc</t>
+  </si>
+  <si>
+    <t>add_apg</t>
+  </si>
+  <si>
+    <t>access_host_apg</t>
+  </si>
+  <si>
+    <t>pod</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1394,6 +1412,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1449,7 +1478,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyNumberFormat="1"/>
@@ -1489,68 +1518,23 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="24" xfId="44">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="36" borderId="24" xfId="44" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="30" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="43" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="36" borderId="24" xfId="44" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1577,6 +1561,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="24" xfId="43" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="36" borderId="24" xfId="44" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="43" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="24" xfId="44" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1937,1214 +1987,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC9172D-5165-4643-8D6D-406EE90B9A46}">
-  <dimension ref="A1:Q31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="5" customWidth="1"/>
-    <col min="16" max="17" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="13">
-        <v>201</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="13">
-        <v>201</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="14">
-        <v>201</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="13">
-        <v>201</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="14">
-        <v>201</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="13">
-        <v>201</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13">
-        <v>9000</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="14">
-        <v>201</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <v>9000</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="13">
-        <v>201</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="14">
-        <v>201</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14">
-        <v>9000</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="14"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="13">
-        <v>201</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13">
-        <v>9000</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="14">
-        <v>201</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <v>9000</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23" s="14"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="13">
-        <v>201</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13">
-        <v>9000</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="14">
-        <v>201</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <v>9000</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="13">
-        <v>201</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13">
-        <v>9000</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="14">
-        <v>201</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
-        <v>9000</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="13">
-        <v>201</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13">
-        <v>9000</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="14">
-        <v>201</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
-        <v>9000</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="13">
-        <v>201</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13">
-        <v>9000</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="14">
-        <v>201</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14">
-        <v>9000</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q31" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F4:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Values are apg_add, pcg_add, vpc_add" sqref="A14:A31" xr:uid="{748ECDDD-6CEE-4BA6-86D7-3848B484E213}">
-      <formula1>"apg_add,pcg_add,vpc_add"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Value is brk_out" sqref="A4:A9" xr:uid="{6114B379-EFF0-4439-BBD9-EBEC7C814D13}">
-      <formula1>"brk_out"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{D7473FD4-9C11-43A3-AFD3-DA7577B3255F}">
-      <formula1>"2x100g_pg,4x10g_pg,4x25g_pg,4x100g_pg,8x50g_pg"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -3174,38 +2016,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="122.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="B2" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3214,16 +2056,16 @@
       <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
@@ -3239,16 +2081,16 @@
       <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="10" t="s">
         <v>53</v>
       </c>
@@ -3264,14 +2106,14 @@
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="8" t="s">
         <v>54</v>
       </c>
@@ -3283,12 +2125,12 @@
     <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3298,12 +2140,12 @@
     <row r="7" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3313,12 +2155,12 @@
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -3328,12 +2170,12 @@
     <row r="9" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -3343,12 +2185,12 @@
     <row r="10" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -3358,12 +2200,12 @@
     <row r="11" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3373,12 +2215,12 @@
     <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -3388,12 +2230,12 @@
     <row r="13" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3403,12 +2245,12 @@
     <row r="14" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -3418,12 +2260,12 @@
     <row r="15" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -3433,12 +2275,12 @@
     <row r="16" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -3448,12 +2290,12 @@
     <row r="17" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -3463,12 +2305,12 @@
     <row r="18" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -3478,12 +2320,12 @@
     <row r="19" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -3493,12 +2335,12 @@
     <row r="20" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -3508,12 +2350,12 @@
     <row r="21" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -3523,12 +2365,12 @@
     <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -3538,12 +2380,12 @@
     <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -3552,38 +2394,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
@@ -3596,6 +2406,38 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A8 A10 A12 A14 A16 A18 A20 A22" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3620,12 +2462,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424EBCF-3FEF-48D4-9AFA-45F0DBA639F5}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="C6" sqref="C6:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,38 +2492,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3693,11 +2535,11 @@
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
@@ -3718,11 +2560,11 @@
       <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="10" t="s">
         <v>53</v>
       </c>
@@ -3743,11 +2585,11 @@
       <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
@@ -3762,9 +2604,9 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -3777,9 +2619,9 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3792,9 +2634,9 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3807,9 +2649,9 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3822,9 +2664,9 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -3837,9 +2679,9 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3852,9 +2694,9 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -3867,9 +2709,9 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -3882,9 +2724,9 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -3897,9 +2739,9 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -3912,9 +2754,9 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3927,9 +2769,9 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -3942,9 +2784,9 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -3957,9 +2799,9 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -3972,9 +2814,9 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -3987,9 +2829,9 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4002,9 +2844,9 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -4017,9 +2859,9 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4030,11 +2872,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
@@ -4046,13 +2890,11 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A23" xr:uid="{754EFBE9-6900-49FB-BD75-ABEDB98186B5}">
@@ -4066,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4AED6B-7A77-4EE3-A7F6-CBCCC2B036C0}">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -4096,38 +2938,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4287,38 +3129,38 @@
       <c r="M11" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -4506,11 +3348,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4187848-1F84-4A13-AF83-2D22DFFC9B06}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4536,38 +3378,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4585,11 +3427,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -4612,9 +3454,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -4627,9 +3469,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4642,9 +3484,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -4657,9 +3499,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -4672,9 +3514,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4687,9 +3529,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -4702,9 +3544,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -4745,7 +3587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77196BEC-C8D9-4D5C-834A-E506C0C92747}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -4775,38 +3617,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4980,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F87990E-C022-458B-B606-67491F8E19A7}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -5010,38 +3852,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -5059,11 +3901,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5086,9 +3928,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -5101,9 +3943,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -5116,9 +3958,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -5131,9 +3973,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -5146,9 +3988,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -5161,9 +4003,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -5176,9 +4018,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -5187,16 +4029,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B10" xr:uid="{0E2C46BF-216F-49C7-A16B-609641BE53B2}">
@@ -5219,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85A0ABA-15F7-4D3F-81E8-11242D30FFAE}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -5249,38 +4091,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -5298,11 +4140,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -5325,9 +4167,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -5340,9 +4182,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -5355,9 +4197,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -5370,9 +4212,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -5385,9 +4227,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -5400,9 +4242,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -5415,9 +4257,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -5458,6 +4300,1375 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC9172D-5165-4643-8D6D-406EE90B9A46}">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="39.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="27" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="13">
+        <v>201</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="13">
+        <v>201</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="14">
+        <v>201</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="13">
+        <v>201</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="14">
+        <v>201</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="13">
+        <v>201</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="48">
+        <v>9000</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="14">
+        <v>201</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="49">
+        <v>9000</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="13">
+        <v>201</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="14">
+        <v>201</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="49">
+        <v>9000</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="13">
+        <v>201</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="48">
+        <v>9000</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="14">
+        <v>201</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="49">
+        <v>9000</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="13">
+        <v>201</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="48">
+        <v>9000</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="14">
+        <v>201</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="49">
+        <v>9000</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="13">
+        <v>201</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="48">
+        <v>9000</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="14">
+        <v>201</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1</v>
+      </c>
+      <c r="H27" s="49">
+        <v>9000</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="13">
+        <v>201</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="48">
+        <v>9000</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="14">
+        <v>201</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="49">
+        <v>9000</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="13">
+        <v>201</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="48">
+        <v>9000</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="14">
+        <v>201</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="49">
+        <v>9000</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="R31" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Values are add_apg, add_pcg, add_vpc" sqref="A14:A31" xr:uid="{748ECDDD-6CEE-4BA6-86D7-3848B484E213}">
+      <formula1>"add_apg,add_pcg,add_vpc"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Value is brk_out" sqref="A4:A9" xr:uid="{6114B379-EFF0-4439-BBD9-EBEC7C814D13}">
+      <formula1>"brk_out"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{D7473FD4-9C11-43A3-AFD3-DA7577B3255F}">
+      <formula1>"2x100g_pg,4x10g_pg,4x25g_pg,4x100g_pg,8x50g_pg"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Link Level Policy" error="Please Select a Valid Value" sqref="I14:I31" xr:uid="{0228881B-70CA-4930-8787-88DF4D4F0FE3}">
+      <formula1>"100M_Auto,100M_noNeg,1G_Auto,1G_noNeg,10G_Auto,10G_noNeg,25G_Auto,25G_noNeg,40G_Auto,40G_noNeg,50G_Auto,50G_noNeg,100G_Auto,100G_noNeg,200G_Auto,200G_noNeg,400G_Auto,400G_noNeg,inherit_Auto,inherit_noNeg"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MTU Error" error="Valid MTU Values are between 1300 and 9000" sqref="H14:H15 H18:H19 H21:H31" xr:uid="{3769FC77-8571-423D-8742-768C846FE5DA}">
+      <formula1>1300</formula1>
+      <formula2>9000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please Select yes or no" sqref="M14:O31" xr:uid="{91DFD36F-CBA3-40FA-88B6-9CB9F63E123A}">
+      <formula1>"no,yes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Switchport Mode" error="Please Select access or trunk" sqref="J14:J31" xr:uid="{331B7731-597F-44A2-B491-44D32401E4BE}">
+      <formula1>"access,trunk"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="P14:P31" xr:uid="{F0248138-EC35-4076-A1A2-2DDE0D080CDC}">
+      <formula1>"BPDU_fg,BPDU_ft,BPDU_gd,no,yes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F14:F31" xr:uid="{3C1773CB-7AB5-4A6B-A3C6-E0F0AB667590}">
+      <formula1>"access_aep,inband_aep,l3out_aep,msite_aep"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C18"/>

--- a/deploy-tenant_input_Spreadsheet.xlsx
+++ b/deploy-tenant_input_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E742B0-7420-4328-9CE5-768374159CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F699C-1115-4FED-8A2A-A223BF2071A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="238">
   <si>
     <t>Type</t>
   </si>
@@ -376,9 +376,6 @@
     <t>r143c-netapp01-ct1-vpc</t>
   </si>
   <si>
-    <t>187</t>
-  </si>
-  <si>
     <t>1-994,997,999-4094</t>
   </si>
   <si>
@@ -630,6 +627,216 @@
   </si>
   <si>
     <t>pod</t>
+  </si>
+  <si>
+    <t>Create Bridge Domains</t>
+  </si>
+  <si>
+    <t>nca_bd</t>
+  </si>
+  <si>
+    <t>v0056_bd</t>
+  </si>
+  <si>
+    <t>v0064_bd</t>
+  </si>
+  <si>
+    <t>v0080_bd</t>
+  </si>
+  <si>
+    <t>v0090_bd</t>
+  </si>
+  <si>
+    <t>v0091_bd</t>
+  </si>
+  <si>
+    <t>v0110_bd</t>
+  </si>
+  <si>
+    <t>v0168_bd</t>
+  </si>
+  <si>
+    <t>v0169_bd</t>
+  </si>
+  <si>
+    <t>v0691_bd</t>
+  </si>
+  <si>
+    <t>v0811_bd</t>
+  </si>
+  <si>
+    <t>v0812_bd</t>
+  </si>
+  <si>
+    <t>v0995_bd</t>
+  </si>
+  <si>
+    <t>v0996_bd</t>
+  </si>
+  <si>
+    <t>v0997_bd</t>
+  </si>
+  <si>
+    <t>v0998_bd</t>
+  </si>
+  <si>
+    <t>v0999_bd</t>
+  </si>
+  <si>
+    <t>v3004_bd</t>
+  </si>
+  <si>
+    <t>v3103_bd</t>
+  </si>
+  <si>
+    <t>v3910_bd</t>
+  </si>
+  <si>
+    <t>v3960_bd</t>
+  </si>
+  <si>
+    <t>v3961_bd</t>
+  </si>
+  <si>
+    <t>v3962_bd</t>
+  </si>
+  <si>
+    <t>v3963_bd</t>
+  </si>
+  <si>
+    <t>v3964_bd</t>
+  </si>
+  <si>
+    <t>v3965_bd</t>
+  </si>
+  <si>
+    <t>v3966_bd</t>
+  </si>
+  <si>
+    <t>v3967_bd</t>
+  </si>
+  <si>
+    <t>v0136_bd</t>
+  </si>
+  <si>
+    <t>v0087_bd</t>
+  </si>
+  <si>
+    <t>v0001_bd</t>
+  </si>
+  <si>
+    <t>v3001_bd</t>
+  </si>
+  <si>
+    <t>v3003_bd</t>
+  </si>
+  <si>
+    <t>intersite-peering</t>
+  </si>
+  <si>
+    <t>OOBMgmt</t>
+  </si>
+  <si>
+    <t>Vlan80</t>
+  </si>
+  <si>
+    <t>markStephensLab</t>
+  </si>
+  <si>
+    <t>paulMerlittiLab</t>
+  </si>
+  <si>
+    <t>inBandMgmt</t>
+  </si>
+  <si>
+    <t>Wakanda-inband.L3Out</t>
+  </si>
+  <si>
+    <t>Asgard-inband.L3Out</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Streched_vl811</t>
+  </si>
+  <si>
+    <t>Loki</t>
+  </si>
+  <si>
+    <t>GW1_Path1</t>
+  </si>
+  <si>
+    <t>GW1_Path2</t>
+  </si>
+  <si>
+    <t>coreL3Peer</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>dirtyDMZ</t>
+  </si>
+  <si>
+    <t>ASE_Data</t>
+  </si>
+  <si>
+    <t>vMotion</t>
+  </si>
+  <si>
+    <t>east-common-tenant-l3</t>
+  </si>
+  <si>
+    <t>Asgard.Common.HNB.L3Out</t>
+  </si>
+  <si>
+    <t>Wakanda.Common.HNB.L3Out</t>
+  </si>
+  <si>
+    <t>Wakanda.Mercy.L3Out</t>
+  </si>
+  <si>
+    <t>Asgard.Mercy.L3Out</t>
+  </si>
+  <si>
+    <t>Wakanda.HNB.L3Out</t>
+  </si>
+  <si>
+    <t>Asgard.HNB.L3Out</t>
+  </si>
+  <si>
+    <t>Asgard_Common_L3Out</t>
+  </si>
+  <si>
+    <t>Asgard-Infra</t>
+  </si>
+  <si>
+    <t>v3019_bd</t>
+  </si>
+  <si>
+    <t>v3011_bd</t>
+  </si>
+  <si>
+    <t>v3007_bd</t>
+  </si>
+  <si>
+    <t>v3006_bd</t>
+  </si>
+  <si>
+    <t>prod_vrf</t>
+  </si>
+  <si>
+    <t>dmz_vrf</t>
+  </si>
+  <si>
+    <t>pod_vrf</t>
+  </si>
+  <si>
+    <t>LACP Policy</t>
+  </si>
+  <si>
+    <t>lacp_Active</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1737,72 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="24" xfId="43" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="36" borderId="24" xfId="44" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="43" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="24" xfId="44" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1561,72 +1834,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="24" xfId="43" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="36" borderId="24" xfId="44" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="43" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="24" xfId="44" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,38 +2223,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="122.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="B2" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -2056,16 +2263,16 @@
       <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
@@ -2081,16 +2288,16 @@
       <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="10" t="s">
         <v>53</v>
       </c>
@@ -2106,14 +2313,14 @@
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2125,12 +2332,12 @@
     <row r="6" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2140,12 +2347,12 @@
     <row r="7" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2155,12 +2362,12 @@
     <row r="8" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -2170,12 +2377,12 @@
     <row r="9" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -2185,12 +2392,12 @@
     <row r="10" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2200,12 +2407,12 @@
     <row r="11" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2215,12 +2422,12 @@
     <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2230,12 +2437,12 @@
     <row r="13" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -2245,12 +2452,12 @@
     <row r="14" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2260,12 +2467,12 @@
     <row r="15" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -2275,12 +2482,12 @@
     <row r="16" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2290,12 +2497,12 @@
     <row r="17" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2305,12 +2512,12 @@
     <row r="18" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2320,12 +2527,12 @@
     <row r="19" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2335,12 +2542,12 @@
     <row r="20" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -2350,12 +2557,12 @@
     <row r="21" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2365,12 +2572,12 @@
     <row r="22" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
@@ -2380,12 +2587,12 @@
     <row r="23" spans="1:13" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2394,6 +2601,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
@@ -2406,38 +2645,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A8 A10 A12 A14 A16 A18 A20 A22" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2467,7 +2674,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C23"/>
+      <selection activeCell="G3" sqref="G3:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,38 +2699,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -2535,11 +2742,11 @@
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
@@ -2560,11 +2767,11 @@
       <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="10" t="s">
         <v>53</v>
       </c>
@@ -2585,11 +2792,11 @@
       <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="8" t="s">
         <v>54</v>
       </c>
@@ -2604,9 +2811,9 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2619,9 +2826,9 @@
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -2634,9 +2841,9 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2649,9 +2856,9 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -2664,9 +2871,9 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2679,9 +2886,9 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -2694,9 +2901,9 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2709,9 +2916,9 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2724,9 +2931,9 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -2739,9 +2946,9 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2754,9 +2961,9 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2769,9 +2976,9 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -2784,9 +2991,9 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -2799,9 +3006,9 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2814,9 +3021,9 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -2829,9 +3036,9 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2844,9 +3051,9 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -2859,9 +3066,9 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2872,13 +3079,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
@@ -2890,11 +3095,13 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A23" xr:uid="{754EFBE9-6900-49FB-BD75-ABEDB98186B5}">
@@ -2938,38 +3145,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3129,38 +3336,38 @@
       <c r="M11" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -3350,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4187848-1F84-4A13-AF83-2D22DFFC9B06}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,15 +3569,9 @@
     <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.140625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="21.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="5" customWidth="1"/>
+    <col min="8" max="13" width="11.85546875" style="5" customWidth="1"/>
     <col min="14" max="14" width="12.140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" style="5" customWidth="1"/>
@@ -3378,38 +3579,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="A1" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3427,11 +3628,13 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -3440,23 +3643,25 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11">
-        <v>201</v>
+        <v>169</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11">
-        <v>201</v>
-      </c>
-      <c r="E4" s="11">
-        <v>202</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+        <v>233</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3464,14 +3669,28 @@
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3479,14 +3698,28 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="A6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3494,14 +3727,28 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="A7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3509,14 +3756,28 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="A8" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -3524,14 +3785,28 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="A9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -3539,51 +3814,913 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="A10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B10" xr:uid="{F5E9DAA0-BDFA-4CA3-82F3-7CAC3EA5633A}">
-      <formula1>1</formula1>
-      <formula2>1000</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Options for Adding Bridge Domain is add_bd or nca_bd" sqref="A4:A40" xr:uid="{73607855-EC72-4AF6-9FDA-5A5C0A35C0B4}">
+      <formula1>"add_bd,nca_bd"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A10" xr:uid="{FE228C6E-1207-405B-8B0E-5FE36F84B155}">
-      <formula1>"vpc_pair"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F40" xr:uid="{FA86EA4B-6A0D-4C04-B3DC-114E5FC0F4E7}">
+      <formula1>"pg,vzAny,neither"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Pod ID" error="Pod Id must be between 1 and 12!" sqref="F4:F10" xr:uid="{76310C02-6F76-4BFA-8BE6-3173F06FD6A9}">
-      <formula1>1</formula1>
-      <formula2>12</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Extend Outside ACI" error="Valid answers are no or yes" sqref="E4:E40" xr:uid="{DB07E8DF-D953-415E-99BF-BA6F30509808}">
+      <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Node ID" error="Valid Node ID is between 101 and 4000" sqref="D4:E10" xr:uid="{9D487DF5-64B6-4B73-A2BC-C594706D6626}">
-      <formula1>101</formula1>
-      <formula2>4000</formula2>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B40" xr:uid="{7940DCC3-9A19-4E58-9369-0FFBAFD24953}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3617,38 +4754,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3852,38 +4989,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -3901,11 +5038,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -3928,9 +5065,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -3943,9 +5080,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3958,9 +5095,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3973,9 +5110,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3988,9 +5125,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4003,9 +5140,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -4018,9 +5155,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -4029,16 +5166,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B10" xr:uid="{0E2C46BF-216F-49C7-A16B-609641BE53B2}">
@@ -4091,38 +5228,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -4140,11 +5277,11 @@
       <c r="E3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -4167,9 +5304,9 @@
       <c r="E4" s="11">
         <v>202</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -4182,9 +5319,9 @@
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -4197,9 +5334,9 @@
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -4212,9 +5349,9 @@
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -4227,9 +5364,9 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -4242,9 +5379,9 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -4257,9 +5394,9 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -4302,10 +5439,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC9172D-5165-4643-8D6D-406EE90B9A46}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,89 +5452,91 @@
     <col min="3" max="3" width="16.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="39.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.85546875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="27" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="7" width="12.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="39.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="27" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-    </row>
-    <row r="2" spans="1:18" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+    </row>
+    <row r="2" spans="1:19" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="1:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="7"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -4406,28 +5545,29 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="13">
         <v>201</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -4436,18 +5576,19 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="16"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="14"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -4456,18 +5597,19 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="13"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -4476,18 +5618,19 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="14"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -4496,18 +5639,19 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="15"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="13"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -4516,18 +5660,19 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -4536,203 +5681,212 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="S9" s="14"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-    </row>
-    <row r="12" spans="1:18" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+    </row>
+    <row r="12" spans="1:19" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+    </row>
+    <row r="13" spans="1:19" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="R13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="S13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="13">
         <v>201</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="S14" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="14">
         <v>201</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="14">
+        <v>163</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="14">
         <v>1</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="I15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="J15" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="N15" s="14" t="s">
         <v>81</v>
       </c>
@@ -4740,55 +5894,58 @@
         <v>81</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="R15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="S15" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="13">
         <v>201</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="13">
+        <v>163</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="I16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="J16" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="M16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="N16" s="13" t="s">
         <v>81</v>
       </c>
@@ -4796,163 +5953,172 @@
         <v>81</v>
       </c>
       <c r="P16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="S16" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="14">
         <v>201</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="13">
         <v>201</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="20">
+        <v>9000</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="48">
-        <v>9000</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="14">
         <v>201</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="14">
+        <v>163</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="14">
         <v>1</v>
       </c>
-      <c r="H19" s="49">
+      <c r="I19" s="21">
         <v>9000</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="J19" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="L19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="M19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="N19" s="14" t="s">
         <v>81</v>
       </c>
@@ -4960,650 +6126,686 @@
         <v>81</v>
       </c>
       <c r="P19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="R19" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="R19" s="14"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="13">
         <v>201</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="13">
+        <v>691</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="14">
         <v>201</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
+        <v>9000</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="49">
-        <v>9000</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="14"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="13">
         <v>201</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="20">
+        <v>9000</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="48">
-        <v>9000</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="14">
         <v>201</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <v>9000</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="49">
-        <v>9000</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="13">
         <v>201</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20">
+        <v>9000</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="48">
-        <v>9000</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="14">
         <v>201</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
+        <v>9000</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
-      <c r="H25" s="49">
-        <v>9000</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="13">
         <v>201</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="20">
+        <v>9000</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="48">
-        <v>9000</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="14">
         <v>201</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="14">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21">
+        <v>9000</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="49">
-        <v>9000</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q27" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="R27" s="14"/>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="13">
         <v>201</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F28" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="20">
+        <v>9000</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="48">
-        <v>9000</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="14">
         <v>201</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="21">
+        <v>9000</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="14">
-        <v>1</v>
-      </c>
-      <c r="H29" s="49">
-        <v>9000</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R29" s="14"/>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="13">
         <v>201</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
+      </c>
+      <c r="I30" s="20">
+        <v>9000</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G30" s="13">
-        <v>1</v>
-      </c>
-      <c r="H30" s="48">
-        <v>9000</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q30" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="14">
         <v>201</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="14">
+        <v>163</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="14">
         <v>1</v>
       </c>
-      <c r="H31" s="49">
+      <c r="I31" s="21">
         <v>9000</v>
       </c>
-      <c r="I31" s="14" t="s">
-        <v>160</v>
-      </c>
       <c r="J31" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="L31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="M31" s="14" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="N31" s="14" t="s">
         <v>81</v>
@@ -5612,29 +6814,32 @@
         <v>81</v>
       </c>
       <c r="P31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="Q31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R31" s="14"/>
+      <c r="R31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A11:S11"/>
+    <mergeCell ref="B12:S12"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Valid Values are add_apg, add_pcg, add_vpc" sqref="A14:A31" xr:uid="{748ECDDD-6CEE-4BA6-86D7-3848B484E213}">
       <formula1>"add_apg,add_pcg,add_vpc"</formula1>
     </dataValidation>
@@ -5644,24 +6849,27 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{D7473FD4-9C11-43A3-AFD3-DA7577B3255F}">
       <formula1>"2x100g_pg,4x10g_pg,4x25g_pg,4x100g_pg,8x50g_pg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Link Level Policy" error="Please Select a Valid Value" sqref="I14:I31" xr:uid="{0228881B-70CA-4930-8787-88DF4D4F0FE3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Link Level Policy" error="Please Select a Valid Value" sqref="J14:J31" xr:uid="{0228881B-70CA-4930-8787-88DF4D4F0FE3}">
       <formula1>"100M_Auto,100M_noNeg,1G_Auto,1G_noNeg,10G_Auto,10G_noNeg,25G_Auto,25G_noNeg,40G_Auto,40G_noNeg,50G_Auto,50G_noNeg,100G_Auto,100G_noNeg,200G_Auto,200G_noNeg,400G_Auto,400G_noNeg,inherit_Auto,inherit_noNeg"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MTU Error" error="Valid MTU Values are between 1300 and 9000" sqref="H14:H15 H18:H19 H21:H31" xr:uid="{3769FC77-8571-423D-8742-768C846FE5DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MTU Error" error="Valid MTU Values are between 1300 and 9000" sqref="I14:I15 I18:I19 I21:I31" xr:uid="{3769FC77-8571-423D-8742-768C846FE5DA}">
       <formula1>1300</formula1>
       <formula2>9000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please Select yes or no" sqref="M14:O31" xr:uid="{91DFD36F-CBA3-40FA-88B6-9CB9F63E123A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please Select yes or no" sqref="N14:P31" xr:uid="{91DFD36F-CBA3-40FA-88B6-9CB9F63E123A}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Switchport Mode" error="Please Select access or trunk" sqref="J14:J31" xr:uid="{331B7731-597F-44A2-B491-44D32401E4BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Switchport Mode" error="Please Select access or trunk" sqref="K14:K31" xr:uid="{331B7731-597F-44A2-B491-44D32401E4BE}">
       <formula1>"access,trunk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="P14:P31" xr:uid="{F0248138-EC35-4076-A1A2-2DDE0D080CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="Q14:Q31" xr:uid="{F0248138-EC35-4076-A1A2-2DDE0D080CDC}">
       <formula1>"BPDU_fg,BPDU_ft,BPDU_gd,no,yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F14:F31" xr:uid="{3C1773CB-7AB5-4A6B-A3C6-E0F0AB667590}">
       <formula1>"access_aep,inband_aep,l3out_aep,msite_aep"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="LACP Policy" error="Please Select a Valid Value" sqref="G14:G31" xr:uid="{FB3A8229-F0F2-4E7C-9CC4-46C3F745C764}">
+      <formula1>"lacp_Active,lacp_MacPin,lacp_Passive,lacp_Static,n/a"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deploy-tenant_input_Spreadsheet.xlsx
+++ b/deploy-tenant_input_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D01617-FD4F-4062-B639-43F2DC011604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B6A16-42A7-44EE-B104-208FDAE58CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="242">
   <si>
     <t>Type</t>
   </si>
@@ -316,9 +316,6 @@
     <t>leaf201</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
     <t>Routed Interface</t>
   </si>
   <si>
@@ -328,15 +325,9 @@
     <t>Create Interface Policy Groups</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
     <t>trunk</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>998-999</t>
   </si>
   <si>
@@ -358,18 +349,12 @@
     <t>access</t>
   </si>
   <si>
-    <t>995</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>143c-lab-gw1-Te0/0/4</t>
   </si>
   <si>
-    <t>691</t>
-  </si>
-  <si>
     <t>r143c-netapp01-ct0-vpc</t>
   </si>
   <si>
@@ -478,21 +463,12 @@
     <t>r143b-ucs-b_vpc</t>
   </si>
   <si>
-    <t>142b-oob_vpc</t>
-  </si>
-  <si>
     <t>asgard-leaf_vpc</t>
   </si>
   <si>
     <t>wakanda-leaf_vpc</t>
   </si>
   <si>
-    <t>143-oob_vpc</t>
-  </si>
-  <si>
-    <t>143-dist_vpc</t>
-  </si>
-  <si>
     <t>Eth1-01</t>
   </si>
   <si>
@@ -548,18 +524,6 @@
   </si>
   <si>
     <t>BreakOut Group Name</t>
-  </si>
-  <si>
-    <t>Eth1-1-01</t>
-  </si>
-  <si>
-    <t>Eth1-1-02</t>
-  </si>
-  <si>
-    <t>Eth1-1-03</t>
-  </si>
-  <si>
-    <t>Eth1-1-04</t>
   </si>
   <si>
     <r>
@@ -827,9 +791,6 @@
     <t>dmz_vrf</t>
   </si>
   <si>
-    <t>pod_vrf</t>
-  </si>
-  <si>
     <t>LACP Policy</t>
   </si>
   <si>
@@ -867,13 +828,34 @@
   </si>
   <si>
     <t>Node Id (2 if vpc)</t>
+  </si>
+  <si>
+    <t>r142b-oob_vpc</t>
+  </si>
+  <si>
+    <t>r143-oob_vpc</t>
+  </si>
+  <si>
+    <t>r143-dist_vpc</t>
+  </si>
+  <si>
+    <t>Eth1-01-1</t>
+  </si>
+  <si>
+    <t>Eth1-01-2</t>
+  </si>
+  <si>
+    <t>Eth1-01-3</t>
+  </si>
+  <si>
+    <t>Eth1-01-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,6 +1033,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1656,7 +1645,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyAlignment="1">
@@ -1722,6 +1711,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2"/>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1729,15 +1728,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
@@ -1755,6 +1745,15 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1764,22 +1763,27 @@
     <xf numFmtId="49" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="43" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="24" xfId="44" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1831,6 +1835,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF44546A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2167,38 +2176,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="122.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2207,16 +2216,16 @@
       <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="6" t="s">
         <v>52</v>
       </c>
@@ -2232,16 +2241,16 @@
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="26" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="9" t="s">
         <v>53</v>
       </c>
@@ -2257,14 +2266,14 @@
       <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="7" t="s">
         <v>54</v>
       </c>
@@ -2276,12 +2285,12 @@
     <row r="6" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2291,12 +2300,12 @@
     <row r="7" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -2306,12 +2315,12 @@
     <row r="8" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2321,12 +2330,12 @@
     <row r="9" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -2336,12 +2345,12 @@
     <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -2351,12 +2360,12 @@
     <row r="11" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -2366,12 +2375,12 @@
     <row r="12" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -2381,12 +2390,12 @@
     <row r="13" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -2396,12 +2405,12 @@
     <row r="14" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -2411,12 +2420,12 @@
     <row r="15" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -2426,12 +2435,12 @@
     <row r="16" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2441,12 +2450,12 @@
     <row r="17" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -2456,12 +2465,12 @@
     <row r="18" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -2471,12 +2480,12 @@
     <row r="19" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2486,12 +2495,12 @@
     <row r="20" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2501,12 +2510,12 @@
     <row r="21" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2516,12 +2525,12 @@
     <row r="22" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2531,12 +2540,12 @@
     <row r="23" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2545,6 +2554,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
@@ -2557,38 +2598,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A8 A10 A12 A14 A16 A18 A20 A22" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2643,38 +2652,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="123" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2686,11 +2695,11 @@
       <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="6" t="s">
         <v>52</v>
       </c>
@@ -2711,11 +2720,11 @@
       <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="9" t="s">
         <v>53</v>
       </c>
@@ -2736,11 +2745,11 @@
       <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="7" t="s">
         <v>54</v>
       </c>
@@ -2755,9 +2764,9 @@
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -2770,9 +2779,9 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2785,9 +2794,9 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2800,9 +2809,9 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2815,9 +2824,9 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -2830,9 +2839,9 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2845,9 +2854,9 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2860,9 +2869,9 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2875,9 +2884,9 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -2890,9 +2899,9 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2905,9 +2914,9 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -2920,9 +2929,9 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2935,9 +2944,9 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -2950,9 +2959,9 @@
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2965,9 +2974,9 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2980,9 +2989,9 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2995,9 +3004,9 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3010,9 +3019,9 @@
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -3023,13 +3032,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
@@ -3041,11 +3048,13 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A23" xr:uid="{754EFBE9-6900-49FB-BD75-ABEDB98186B5}">
@@ -3064,7 +3073,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:M14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3089,38 +3098,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -3280,38 +3289,38 @@
       <c r="M11" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -3349,14 +3358,14 @@
       <c r="B16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="45">
+        <v>201</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -3501,10 +3510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4187848-1F84-4A13-AF83-2D22DFFC9B06}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,38 +3532,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -3587,19 +3596,19 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>53</v>
@@ -3614,25 +3623,25 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -3643,25 +3652,25 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -3672,25 +3681,25 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3701,25 +3710,25 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -3730,25 +3739,25 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3759,25 +3768,25 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -3788,25 +3797,25 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3817,25 +3826,25 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -3846,25 +3855,25 @@
     </row>
     <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -3875,25 +3884,25 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -3904,25 +3913,25 @@
     </row>
     <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -3933,25 +3942,25 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -3962,25 +3971,25 @@
     </row>
     <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -3991,25 +4000,25 @@
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -4020,25 +4029,25 @@
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -4049,25 +4058,25 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -4078,19 +4087,19 @@
     </row>
     <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>53</v>
@@ -4105,25 +4114,25 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -4134,19 +4143,19 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>53</v>
@@ -4161,19 +4170,19 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>53</v>
@@ -4188,19 +4197,19 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>53</v>
@@ -4215,24 +4224,26 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -4242,25 +4253,25 @@
     </row>
     <row r="27" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -4271,25 +4282,25 @@
     </row>
     <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -4300,25 +4311,25 @@
     </row>
     <row r="29" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -4329,25 +4340,25 @@
     </row>
     <row r="30" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -4358,25 +4369,25 @@
     </row>
     <row r="31" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -4387,25 +4398,25 @@
     </row>
     <row r="32" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -4416,25 +4427,25 @@
     </row>
     <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -4445,25 +4456,25 @@
     </row>
     <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -4474,25 +4485,25 @@
     </row>
     <row r="35" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -4503,25 +4514,25 @@
     </row>
     <row r="36" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -4532,25 +4543,25 @@
     </row>
     <row r="37" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -4561,25 +4572,25 @@
     </row>
     <row r="38" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -4590,25 +4601,25 @@
     </row>
     <row r="39" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -4617,51 +4628,22 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Options for Adding Bridge Domain is add_bd or nca_bd" sqref="A4:A40" xr:uid="{73607855-EC72-4AF6-9FDA-5A5C0A35C0B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type Error" error="Options for Adding Bridge Domain is add_bd or nca_bd" sqref="A4:A39" xr:uid="{73607855-EC72-4AF6-9FDA-5A5C0A35C0B4}">
       <formula1>"add_bd,nca_bd"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F40" xr:uid="{FA86EA4B-6A0D-4C04-B3DC-114E5FC0F4E7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F39" xr:uid="{FA86EA4B-6A0D-4C04-B3DC-114E5FC0F4E7}">
       <formula1>"pg,vzAny,neither"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Extend Outside ACI" error="Valid answers are no or yes" sqref="E4:E40" xr:uid="{DB07E8DF-D953-415E-99BF-BA6F30509808}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Extend Outside ACI" error="Valid answers are no or yes" sqref="E4:E39" xr:uid="{DB07E8DF-D953-415E-99BF-BA6F30509808}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B40" xr:uid="{7940DCC3-9A19-4E58-9369-0FFBAFD24953}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B39" xr:uid="{7940DCC3-9A19-4E58-9369-0FFBAFD24953}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4698,38 +4680,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -4933,38 +4915,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -4982,11 +4964,11 @@
       <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -5009,9 +4991,9 @@
       <c r="E4" s="10">
         <v>202</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -5024,9 +5006,9 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -5039,9 +5021,9 @@
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -5054,9 +5036,9 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -5069,9 +5051,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -5084,9 +5066,9 @@
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -5099,9 +5081,9 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -5110,16 +5092,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="VPC ID" error="The VPC ID must be a number between 1 and 1000" sqref="B4:B10" xr:uid="{0E2C46BF-216F-49C7-A16B-609641BE53B2}">
@@ -5147,7 +5129,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5172,38 +5154,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -5221,11 +5203,11 @@
       <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -5248,9 +5230,9 @@
       <c r="E4" s="10">
         <v>202</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -5263,9 +5245,9 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -5278,9 +5260,9 @@
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -5293,9 +5275,9 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -5308,9 +5290,9 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -5323,9 +5305,9 @@
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -5338,9 +5320,9 @@
       <c r="C10" s="9"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -5385,25 +5367,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC9172D-5165-4643-8D6D-406EE90B9A46}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="39.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -5414,78 +5396,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
+      <c r="A1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
     </row>
     <row r="3" spans="1:19" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -5502,10 +5484,10 @@
     </row>
     <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>2</v>
@@ -5526,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -5645,365 +5627,365 @@
       <c r="S9" s="13"/>
     </row>
     <row r="11" spans="1:19" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
+      <c r="A11" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
     </row>
     <row r="12" spans="1:19" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
     </row>
     <row r="13" spans="1:19" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="R13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="S13" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="43">
+        <v>1500</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="43">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="N14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="S14" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H15" s="13">
         <v>1</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="44">
+        <v>1500</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="44">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="13" t="s">
+      <c r="N15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="S15" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="46">
+        <v>201</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="7">
-        <v>201</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>77</v>
+      <c r="I16" s="43">
+        <v>1500</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="L16" s="43">
+        <v>995</v>
       </c>
       <c r="M16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="9">
+        <v>241</v>
+      </c>
+      <c r="D17" s="47">
         <v>201</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H17" s="13">
         <v>1</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>77</v>
+      <c r="I17" s="44">
+        <v>1500</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="L17" s="44">
+        <v>995</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>246</v>
+        <v>125</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H18" s="12">
         <v>1</v>
@@ -6012,55 +5994,55 @@
         <v>9000</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="43">
+        <v>691</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>246</v>
+        <v>126</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H19" s="13">
         <v>1</v>
@@ -6069,112 +6051,112 @@
         <v>9000</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="L19" s="44">
+        <v>691</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="7">
+        <v>127</v>
+      </c>
+      <c r="D20" s="46">
         <v>201</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>77</v>
+      <c r="I20" s="43">
+        <v>1500</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="12">
+        <v>83</v>
+      </c>
+      <c r="L20" s="16">
         <v>691</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S20" s="12"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>246</v>
+        <v>128</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H21" s="13">
         <v>1</v>
@@ -6183,55 +6165,55 @@
         <v>9000</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L21" s="44">
+        <v>1</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="S21" s="13"/>
     </row>
     <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>246</v>
+        <v>129</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H22" s="12">
         <v>1</v>
@@ -6240,55 +6222,55 @@
         <v>9000</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L22" s="43">
+        <v>1</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H23" s="13">
         <v>1</v>
@@ -6297,55 +6279,55 @@
         <v>9000</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L23" s="44">
+        <v>1</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>246</v>
+        <v>131</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H24" s="12">
         <v>1</v>
@@ -6354,57 +6336,57 @@
         <v>9000</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L24" s="43">
+        <v>1</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>246</v>
+        <v>132</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H25" s="13">
         <v>1</v>
@@ -6413,57 +6395,57 @@
         <v>9000</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L25" s="44">
+        <v>1</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>246</v>
+        <v>133</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H26" s="12">
         <v>1</v>
@@ -6472,55 +6454,55 @@
         <v>9000</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L26" s="43">
+        <v>1</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S26" s="12"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>246</v>
+        <v>134</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>233</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H27" s="13">
         <v>1</v>
@@ -6529,55 +6511,55 @@
         <v>9000</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L27" s="44">
+        <v>1</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H28" s="12">
         <v>1</v>
@@ -6586,55 +6568,55 @@
         <v>9000</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L28" s="43">
+        <v>1</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H29" s="13">
         <v>1</v>
@@ -6643,55 +6625,55 @@
         <v>9000</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L29" s="44">
+        <v>1</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S29" s="13"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H30" s="12">
         <v>1</v>
@@ -6700,55 +6682,55 @@
         <v>9000</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L30" s="43">
+        <v>1</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S30" s="12"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
@@ -6757,31 +6739,31 @@
         <v>9000</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L31" s="44">
+        <v>1</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S31" s="13"/>
     </row>
@@ -6860,13 +6842,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6907,7 +6889,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6952,7 +6934,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6961,7 +6943,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6970,7 +6952,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6979,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/deploy-tenant_input_Spreadsheet.xlsx
+++ b/deploy-tenant_input_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\tyscott\terraform-aci-fabric-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF06A26A-BBF3-4230-A8C0-A853E484A715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D32D9A-437C-4E44-9F69-26B3CF7496D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="326">
   <si>
     <t>Type</t>
   </si>
@@ -292,9 +292,6 @@
     <t>64</t>
   </si>
   <si>
-    <t>142b-oob-vpc</t>
-  </si>
-  <si>
     <t>169,811-812,3960,3963,3965-3967</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>asgard-leaf101-Eth1/49</t>
   </si>
   <si>
-    <t>asgard-leaf102-Eth1/49</t>
-  </si>
-  <si>
     <t>168,812,3910,3961-3962,3964</t>
   </si>
   <si>
@@ -406,18 +400,6 @@
     <t>Eth1-10</t>
   </si>
   <si>
-    <t>Eth1-11</t>
-  </si>
-  <si>
-    <t>Eth1-12</t>
-  </si>
-  <si>
-    <t>Eth1-13</t>
-  </si>
-  <si>
-    <t>Eth1-14</t>
-  </si>
-  <si>
     <t>Eth1-15</t>
   </si>
   <si>
@@ -433,9 +415,6 @@
     <t>inherit_Auto</t>
   </si>
   <si>
-    <t>100G_noNeg</t>
-  </si>
-  <si>
     <t>BPDU_fg</t>
   </si>
   <si>
@@ -692,15 +671,6 @@
   </si>
   <si>
     <t>Eth1-17</t>
-  </si>
-  <si>
-    <t>Eth1-18</t>
-  </si>
-  <si>
-    <t>leaf201,leaf202</t>
-  </si>
-  <si>
-    <t>Switch Name(s)</t>
   </si>
   <si>
     <t>Node Id(s)</t>
@@ -1044,6 +1014,60 @@
   </si>
   <si>
     <t>level3</t>
+  </si>
+  <si>
+    <t>asgard-ucs-a-Eth1/97</t>
+  </si>
+  <si>
+    <t>asgard-ucs-a-Eth1/98</t>
+  </si>
+  <si>
+    <t>asgard-ucs-b-Eth1/97</t>
+  </si>
+  <si>
+    <t>asgard-ucs-b-Eth1/98</t>
+  </si>
+  <si>
+    <t>BPDU_ft</t>
+  </si>
+  <si>
+    <t>asgard-leaf102-Eth1/50</t>
+  </si>
+  <si>
+    <t>wakanda-leaf101-Eth1/49</t>
+  </si>
+  <si>
+    <t>wakanda-leaf102-Eth1/50</t>
+  </si>
+  <si>
+    <t>143b-oob-Eth1/53</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>143c-oob-Eth1/54</t>
+  </si>
+  <si>
+    <t>143b-dist-Eth1/54</t>
+  </si>
+  <si>
+    <t>143c-dist-Eth1/54</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct0-m0</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct0-m1</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct1-m0</t>
+  </si>
+  <si>
+    <t>r143c-netapp01-ct1-m1</t>
+  </si>
+  <si>
+    <t>level2</t>
   </si>
 </sst>
 </file>
@@ -1844,54 +1868,6 @@
     <xf numFmtId="49" fontId="25" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1915,6 +1891,54 @@
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="15" xfId="43" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="8" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="20" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="19" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2299,38 +2323,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2355,315 +2379,315 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2707,38 +2731,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -2748,16 +2772,16 @@
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2769,22 +2793,22 @@
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2796,19 +2820,19 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>45</v>
@@ -3115,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85A0ABA-15F7-4D3F-81E8-11242D30FFAE}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,63 +3168,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="A1" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="A4" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -3213,86 +3237,86 @@
         <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>281</v>
+        <v>213</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>239</v>
+      <c r="I5" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="40">
+        <v>234</v>
+      </c>
+      <c r="H6" s="24">
         <v>56</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P6" s="15" t="s">
         <v>74</v>
@@ -3300,45 +3324,45 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H7" s="41">
+        <v>247</v>
+      </c>
+      <c r="H7" s="25">
         <v>995</v>
       </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>74</v>
@@ -3346,45 +3370,45 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="40">
+        <v>248</v>
+      </c>
+      <c r="H8" s="24">
         <v>996</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>74</v>
@@ -3392,69 +3416,69 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H9" s="41">
+        <v>251</v>
+      </c>
+      <c r="H9" s="25">
         <v>999</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="A12" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" spans="1:16" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -3467,84 +3491,84 @@
         <v>43</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>281</v>
+        <v>213</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>239</v>
+      <c r="I13" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" s="40">
+        <v>233</v>
+      </c>
+      <c r="H14" s="24">
         <v>1</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N14" s="42"/>
+        <v>281</v>
+      </c>
+      <c r="N14" s="26"/>
       <c r="O14" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>74</v>
@@ -3552,45 +3576,45 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="H15" s="41">
+        <v>235</v>
+      </c>
+      <c r="H15" s="25">
         <v>64</v>
       </c>
-      <c r="I15" s="41"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>74</v>
@@ -3598,45 +3622,45 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="H16" s="40">
+        <v>236</v>
+      </c>
+      <c r="H16" s="24">
         <v>80</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N16" s="42" t="s">
-        <v>171</v>
+        <v>281</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>74</v>
@@ -3644,43 +3668,43 @@
     </row>
     <row r="17" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="41">
+        <v>237</v>
+      </c>
+      <c r="H17" s="25">
         <v>87</v>
       </c>
-      <c r="I17" s="41"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>74</v>
@@ -3688,45 +3712,45 @@
     </row>
     <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H18" s="40">
+        <v>238</v>
+      </c>
+      <c r="H18" s="24">
         <v>90</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>74</v>
@@ -3734,45 +3758,45 @@
     </row>
     <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H19" s="41">
+        <v>239</v>
+      </c>
+      <c r="H19" s="25">
         <v>91</v>
       </c>
-      <c r="I19" s="41"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>74</v>
@@ -3780,45 +3804,45 @@
     </row>
     <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" s="40">
+        <v>240</v>
+      </c>
+      <c r="H20" s="24">
         <v>110</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>74</v>
@@ -3826,43 +3850,43 @@
     </row>
     <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H21" s="41">
+        <v>241</v>
+      </c>
+      <c r="H21" s="25">
         <v>136</v>
       </c>
-      <c r="I21" s="41"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P21" s="14" t="s">
         <v>74</v>
@@ -3870,45 +3894,45 @@
     </row>
     <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="H22" s="40">
+        <v>242</v>
+      </c>
+      <c r="H22" s="24">
         <v>168</v>
       </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>74</v>
@@ -3916,45 +3940,45 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H23" s="41">
+        <v>243</v>
+      </c>
+      <c r="H23" s="25">
         <v>169</v>
       </c>
-      <c r="I23" s="41"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>74</v>
@@ -3962,45 +3986,45 @@
     </row>
     <row r="24" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H24" s="40">
+        <v>244</v>
+      </c>
+      <c r="H24" s="24">
         <v>691</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>74</v>
@@ -4008,45 +4032,45 @@
     </row>
     <row r="25" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="H25" s="41">
+        <v>245</v>
+      </c>
+      <c r="H25" s="25">
         <v>811</v>
       </c>
-      <c r="I25" s="41"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P25" s="14" t="s">
         <v>74</v>
@@ -4054,45 +4078,45 @@
     </row>
     <row r="26" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="40">
+        <v>246</v>
+      </c>
+      <c r="H26" s="24">
         <v>812</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>74</v>
@@ -4100,45 +4124,45 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="41">
+        <v>249</v>
+      </c>
+      <c r="H27" s="25">
         <v>997</v>
       </c>
-      <c r="I27" s="41"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>74</v>
@@ -4146,45 +4170,45 @@
     </row>
     <row r="28" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="40">
+        <v>250</v>
+      </c>
+      <c r="H28" s="24">
         <v>998</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>74</v>
@@ -4192,45 +4216,45 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H29" s="41">
+        <v>252</v>
+      </c>
+      <c r="H29" s="25">
         <v>3001</v>
       </c>
-      <c r="I29" s="41"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P29" s="14" t="s">
         <v>74</v>
@@ -4238,43 +4262,43 @@
     </row>
     <row r="30" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="H30" s="40">
+        <v>253</v>
+      </c>
+      <c r="H30" s="24">
         <v>3003</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>74</v>
@@ -4282,45 +4306,45 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H31" s="41">
+        <v>254</v>
+      </c>
+      <c r="H31" s="25">
         <v>3004</v>
       </c>
-      <c r="I31" s="41"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P31" s="14" t="s">
         <v>74</v>
@@ -4328,43 +4352,43 @@
     </row>
     <row r="32" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="H32" s="40">
+        <v>255</v>
+      </c>
+      <c r="H32" s="24">
         <v>3006</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N32" s="42"/>
+        <v>281</v>
+      </c>
+      <c r="N32" s="26"/>
       <c r="O32" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>74</v>
@@ -4372,43 +4396,43 @@
     </row>
     <row r="33" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="41">
+        <v>256</v>
+      </c>
+      <c r="H33" s="25">
         <v>3007</v>
       </c>
-      <c r="I33" s="41"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>74</v>
@@ -4416,43 +4440,43 @@
     </row>
     <row r="34" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H34" s="40">
+        <v>257</v>
+      </c>
+      <c r="H34" s="24">
         <v>3011</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N34" s="42"/>
+        <v>281</v>
+      </c>
+      <c r="N34" s="26"/>
       <c r="O34" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>74</v>
@@ -4460,43 +4484,43 @@
     </row>
     <row r="35" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H35" s="41">
+        <v>258</v>
+      </c>
+      <c r="H35" s="25">
         <v>3019</v>
       </c>
-      <c r="I35" s="41"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N35" s="14"/>
       <c r="O35" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P35" s="14" t="s">
         <v>74</v>
@@ -4504,45 +4528,45 @@
     </row>
     <row r="36" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H36" s="40">
+        <v>259</v>
+      </c>
+      <c r="H36" s="24">
         <v>3103</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>74</v>
@@ -4550,45 +4574,45 @@
     </row>
     <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="41">
+        <v>260</v>
+      </c>
+      <c r="H37" s="25">
         <v>3910</v>
       </c>
-      <c r="I37" s="41"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P37" s="14" t="s">
         <v>74</v>
@@ -4596,45 +4620,45 @@
     </row>
     <row r="38" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="40">
+        <v>261</v>
+      </c>
+      <c r="H38" s="24">
         <v>3960</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>74</v>
@@ -4642,45 +4666,45 @@
     </row>
     <row r="39" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H39" s="41">
+        <v>262</v>
+      </c>
+      <c r="H39" s="25">
         <v>3961</v>
       </c>
-      <c r="I39" s="41"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P39" s="14" t="s">
         <v>74</v>
@@ -4688,45 +4712,45 @@
     </row>
     <row r="40" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="H40" s="40">
+        <v>263</v>
+      </c>
+      <c r="H40" s="24">
         <v>3962</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>74</v>
@@ -4734,45 +4758,45 @@
     </row>
     <row r="41" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H41" s="41">
+        <v>264</v>
+      </c>
+      <c r="H41" s="25">
         <v>3963</v>
       </c>
-      <c r="I41" s="41"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P41" s="14" t="s">
         <v>74</v>
@@ -4780,45 +4804,45 @@
     </row>
     <row r="42" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H42" s="40">
+        <v>265</v>
+      </c>
+      <c r="H42" s="24">
         <v>3964</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>74</v>
@@ -4826,45 +4850,45 @@
     </row>
     <row r="43" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H43" s="41">
+        <v>266</v>
+      </c>
+      <c r="H43" s="25">
         <v>3965</v>
       </c>
-      <c r="I43" s="41"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P43" s="14" t="s">
         <v>74</v>
@@ -4872,45 +4896,45 @@
     </row>
     <row r="44" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="H44" s="40">
+        <v>267</v>
+      </c>
+      <c r="H44" s="24">
         <v>3966</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>74</v>
@@ -4918,45 +4942,45 @@
     </row>
     <row r="45" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="H45" s="41">
+        <v>268</v>
+      </c>
+      <c r="H45" s="25">
         <v>3967</v>
       </c>
-      <c r="I45" s="41"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P45" s="14" t="s">
         <v>74</v>
@@ -4964,42 +4988,42 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H46" s="40">
+        <v>292</v>
+      </c>
+      <c r="H46" s="24">
         <v>201</v>
       </c>
-      <c r="I46" s="40"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N46" s="42" t="s">
-        <v>304</v>
+        <v>281</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="O46" s="15"/>
       <c r="P46" s="15" t="s">
@@ -5008,42 +5032,42 @@
     </row>
     <row r="47" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H47" s="41">
+        <v>293</v>
+      </c>
+      <c r="H47" s="25">
         <v>202</v>
       </c>
-      <c r="I47" s="41"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="14" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="14" t="s">
@@ -5052,42 +5076,42 @@
     </row>
     <row r="48" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="H48" s="40">
+        <v>291</v>
+      </c>
+      <c r="H48" s="24">
         <v>203</v>
       </c>
-      <c r="I48" s="40"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N48" s="42" t="s">
-        <v>306</v>
+        <v>281</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>296</v>
       </c>
       <c r="O48" s="15"/>
       <c r="P48" s="15" t="s">
@@ -5096,42 +5120,42 @@
     </row>
     <row r="49" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H49" s="41">
+        <v>290</v>
+      </c>
+      <c r="H49" s="25">
         <v>204</v>
       </c>
-      <c r="I49" s="41"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="14" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N49" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="O49" s="14"/>
       <c r="P49" s="14" t="s">
@@ -5140,42 +5164,42 @@
     </row>
     <row r="50" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H50" s="40">
+        <v>287</v>
+      </c>
+      <c r="H50" s="24">
         <v>205</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="15" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N50" s="42" t="s">
-        <v>308</v>
+        <v>281</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>298</v>
       </c>
       <c r="O50" s="15"/>
       <c r="P50" s="15" t="s">
@@ -5184,42 +5208,42 @@
     </row>
     <row r="51" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>74</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H51" s="41">
+        <v>288</v>
+      </c>
+      <c r="H51" s="25">
         <v>206</v>
       </c>
-      <c r="I51" s="41"/>
+      <c r="I51" s="25"/>
       <c r="J51" s="14" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="O51" s="14"/>
       <c r="P51" s="14" t="s">
@@ -5228,42 +5252,42 @@
     </row>
     <row r="52" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H52" s="40">
+        <v>289</v>
+      </c>
+      <c r="H52" s="24">
         <v>207</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="N52" s="42" t="s">
-        <v>310</v>
+        <v>281</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="O52" s="15"/>
       <c r="P52" s="15" t="s">
@@ -5278,8 +5302,8 @@
       <c r="E53" s="14"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -5296,13 +5320,13 @@
       <c r="E54" s="15"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
-      <c r="N54" s="42"/>
+      <c r="N54" s="26"/>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
     </row>
@@ -5314,8 +5338,8 @@
       <c r="E55" s="14"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
@@ -5332,13 +5356,13 @@
       <c r="E56" s="15"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="42"/>
+      <c r="N56" s="26"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
     </row>
@@ -5350,8 +5374,8 @@
       <c r="E57" s="14"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -5368,13 +5392,13 @@
       <c r="E58" s="15"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
-      <c r="N58" s="42"/>
+      <c r="N58" s="26"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
     </row>
@@ -5386,8 +5410,8 @@
       <c r="E59" s="14"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
@@ -5404,13 +5428,13 @@
       <c r="E60" s="15"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="42"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
     </row>
@@ -5422,8 +5446,8 @@
       <c r="E61" s="14"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
@@ -5440,13 +5464,13 @@
       <c r="E62" s="15"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="42"/>
+      <c r="N62" s="26"/>
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
     </row>
@@ -5458,8 +5482,8 @@
       <c r="E63" s="14"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
@@ -5476,13 +5500,13 @@
       <c r="E64" s="15"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="42"/>
+      <c r="N64" s="26"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
     </row>
@@ -5494,8 +5518,8 @@
       <c r="E65" s="14"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
@@ -5512,13 +5536,13 @@
       <c r="E66" s="15"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
-      <c r="N66" s="42"/>
+      <c r="N66" s="26"/>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
     </row>
@@ -5530,8 +5554,8 @@
       <c r="E67" s="14"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
@@ -5610,38 +5634,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -5801,38 +5825,38 @@
       <c r="M11" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -6050,38 +6074,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -6285,38 +6309,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -6334,11 +6358,11 @@
       <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -6361,9 +6385,9 @@
       <c r="E4" s="15">
         <v>202</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -6496,10 +6520,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC9172D-5165-4643-8D6D-406EE90B9A46}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6522,62 +6546,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="A1" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -6595,7 +6619,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -6607,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -6698,109 +6722,109 @@
       <c r="N9" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-    </row>
-    <row r="13" spans="1:14" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G14" s="18">
         <v>1500</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>68</v>
@@ -6812,10 +6836,10 @@
         <v>68</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>69</v>
@@ -6823,28 +6847,28 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G15" s="17">
         <v>1500</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>68</v>
@@ -6856,7 +6880,7 @@
         <v>68</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>70</v>
@@ -6867,19 +6891,19 @@
     </row>
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>72</v>
@@ -6888,7 +6912,7 @@
         <v>1500</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>68</v>
@@ -6911,19 +6935,19 @@
     </row>
     <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>72</v>
@@ -6932,7 +6956,7 @@
         <v>1500</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>68</v>
@@ -6949,32 +6973,34 @@
       <c r="M17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G18" s="18">
         <v>9000</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>68</v>
@@ -6986,37 +7012,39 @@
         <v>68</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G19" s="17">
         <v>9000</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>68</v>
@@ -7028,37 +7056,39 @@
         <v>68</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="G20" s="18">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>68</v>
@@ -7070,37 +7100,39 @@
         <v>68</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G21" s="17">
         <v>9000</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>68</v>
@@ -7112,37 +7144,39 @@
         <v>68</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G22" s="18">
         <v>9000</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>68</v>
@@ -7154,37 +7188,39 @@
         <v>68</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G23" s="17">
         <v>9000</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>68</v>
@@ -7196,37 +7232,39 @@
         <v>68</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N23" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G24" s="18">
         <v>9000</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>68</v>
@@ -7238,39 +7276,39 @@
         <v>68</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G25" s="17">
         <v>9000</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>68</v>
@@ -7282,39 +7320,39 @@
         <v>68</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>86</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G26" s="18">
         <v>9000</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>68</v>
@@ -7326,37 +7364,39 @@
         <v>68</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N26" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G27" s="17">
         <v>9000</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>68</v>
@@ -7368,37 +7408,39 @@
         <v>68</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="N27" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G28" s="18">
         <v>9000</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>68</v>
@@ -7410,37 +7452,39 @@
         <v>68</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N28" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G29" s="17">
         <v>9000</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>68</v>
@@ -7452,37 +7496,39 @@
         <v>68</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G30" s="18">
         <v>9000</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>68</v>
@@ -7494,37 +7540,39 @@
         <v>68</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G31" s="17">
         <v>9000</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>68</v>
@@ -7536,37 +7584,39 @@
         <v>68</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N31" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="G32" s="18">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>68</v>
@@ -7578,39 +7628,39 @@
         <v>68</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="G33" s="17">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>68</v>
@@ -7622,37 +7672,39 @@
         <v>68</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="G34" s="18">
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>68</v>
@@ -7664,12 +7716,234 @@
         <v>68</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7699,7 +7973,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please Select yes or no" sqref="I14:K34" xr:uid="{91DFD36F-CBA3-40FA-88B6-9CB9F63E123A}">
       <formula1>"no,yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="L14:L34" xr:uid="{F0248138-EC35-4076-A1A2-2DDE0D080CDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="BPDU" error="Please Select BPDU_fg, BPDU_ft, BPDU_gd, no, or yes" sqref="L14:L39" xr:uid="{F0248138-EC35-4076-A1A2-2DDE0D080CDC}">
       <formula1>"BPDU_fg,BPDU_ft,BPDU_gd,no,yes"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D14:D34" xr:uid="{3C1773CB-7AB5-4A6B-A3C6-E0F0AB667590}">
@@ -7726,778 +8000,709 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A303CA-7EB2-44A9-93B9-130F105A33B3}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14" style="4" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="27" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="27" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>93</v>
+        <v>304</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>240</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="38">
+        <v>223</v>
+      </c>
+      <c r="B4" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>210</v>
+      <c r="C4" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="13">
+      <c r="F4" s="13">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="27" t="s">
         <v>67</v>
       </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="39">
+        <v>223</v>
+      </c>
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>210</v>
+      <c r="C5" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="12">
+      <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="28" t="s">
         <v>67</v>
       </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="38">
+        <v>222</v>
+      </c>
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="20">
         <v>201</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="13">
+      <c r="F6" s="13">
         <v>995</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="27" t="s">
         <v>72</v>
       </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="39">
+        <v>222</v>
+      </c>
+      <c r="B7" s="23">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C7" s="19">
         <v>201</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="12">
+      <c r="F7" s="12">
         <v>995</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="28" t="s">
         <v>72</v>
       </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="38">
+        <v>223</v>
+      </c>
+      <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>210</v>
+      <c r="C8" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="13">
+      <c r="F8" s="13">
         <v>691</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="27" t="s">
         <v>72</v>
       </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="39">
+        <v>223</v>
+      </c>
+      <c r="B9" s="23">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>210</v>
+      <c r="C9" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="12">
+      <c r="F9" s="12">
         <v>691</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="28" t="s">
         <v>72</v>
       </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="38">
+        <v>222</v>
+      </c>
+      <c r="B10" s="22">
         <v>1</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="C10" s="20">
         <v>201</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="13">
+      <c r="F10" s="13">
         <v>691</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="27" t="s">
         <v>72</v>
       </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="39">
+        <v>223</v>
+      </c>
+      <c r="B11" s="23">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>210</v>
+      <c r="C11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="12">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="28" t="s">
         <v>78</v>
       </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="38">
+        <v>223</v>
+      </c>
+      <c r="B12" s="22">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>210</v>
+      <c r="C12" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="13">
+      <c r="F12" s="13">
         <v>1</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="27" t="s">
         <v>78</v>
       </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="39">
+        <v>223</v>
+      </c>
+      <c r="B13" s="23">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>210</v>
+      <c r="C13" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="12">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="28" t="s">
         <v>81</v>
       </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="38">
+        <v>223</v>
+      </c>
+      <c r="B14" s="22">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>210</v>
+      <c r="C14" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="13">
+      <c r="F14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="G14" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" s="39">
+        <v>223</v>
+      </c>
+      <c r="B15" s="23">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>210</v>
+      <c r="C15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="12">
+      <c r="F15" s="12">
         <v>1</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="G15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="38">
+        <v>223</v>
+      </c>
+      <c r="B16" s="22">
         <v>1</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>210</v>
+      <c r="C16" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="13">
+      <c r="F16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="G16" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="39">
+        <v>223</v>
+      </c>
+      <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>210</v>
+      <c r="C17" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="12">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="G17" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="38">
+        <v>223</v>
+      </c>
+      <c r="B18" s="22">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>210</v>
+      <c r="C18" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="13">
+      <c r="F18" s="13">
         <v>1</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="39">
+        <v>223</v>
+      </c>
+      <c r="B19" s="23">
         <v>1</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>210</v>
+      <c r="C19" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="12">
+      <c r="F19" s="12">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="G19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="38">
+        <v>223</v>
+      </c>
+      <c r="B20" s="22">
         <v>1</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>210</v>
+      <c r="C20" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="13">
+      <c r="F20" s="13">
         <v>1</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="39">
+        <v>223</v>
+      </c>
+      <c r="B21" s="23">
         <v>1</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>210</v>
+      <c r="C21" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="12">
+      <c r="F21" s="12">
         <v>1</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="G21" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="38">
+        <v>222</v>
+      </c>
+      <c r="B22" s="22">
         <v>1</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="C22" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="13">
+      <c r="F22" s="13">
         <v>995</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="27" t="s">
         <v>72</v>
       </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="39">
+        <v>222</v>
+      </c>
+      <c r="B23" s="23">
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="C23" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="12">
+      <c r="F23" s="12">
         <v>995</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="28" t="s">
         <v>72</v>
       </c>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="38">
+        <v>222</v>
+      </c>
+      <c r="B24" s="22">
         <v>1</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="C24" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="13">
+      <c r="F24" s="13">
         <v>691</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="27" t="s">
         <v>72</v>
       </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="D2:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Switchport Mode" error="Please Select access or trunk" sqref="F4:F24" xr:uid="{135F32B7-6401-42C0-B391-7425CE8423C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Switchport Mode" error="Please Select access or trunk" sqref="E4:E24" xr:uid="{135F32B7-6401-42C0-B391-7425CE8423C5}">
       <formula1>"access,trunk"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Select a Valid Value from the Drop down menu" sqref="A4:A24" xr:uid="{4B840545-D99B-470E-9D0D-45BE438DEF3C}">
@@ -8507,12 +8712,13 @@
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PVLAN" error="Valid Range is between 1 and 4094" sqref="G4:G24" xr:uid="{DFD3ECEB-24BA-422A-B8EF-E6C17E05B447}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PVLAN" error="Valid Range is between 1 and 4094" sqref="F4:F24" xr:uid="{DFD3ECEB-24BA-422A-B8EF-E6C17E05B447}">
       <formula1>1</formula1>
       <formula2>4094</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8579,7 +8785,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8624,7 +8830,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8633,7 +8839,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8642,7 +8848,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8651,7 +8857,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
